--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_s1_d.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_s1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FECB6D-07BD-4495-8567-706BAFB14009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82167B60-FA1A-4D85-9C59-D6E059E19D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -642,10 +642,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S5aH4,S6aH3,S6aH4,S1aH3,S4aH2,S1aH6,S5b1006h12,S5b1006h10,S5b1006h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S5b1006h16,S5b1006h18,S6aH5,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S5b1006h14,S2aH6,S3aH5,S5aH3,S5b1006h11,S3aH2,S5b1006h09,S5b1006h15,S3aH4,S4aH3,S4aH4,S5b1006h17,S4aH5,S5b1006h07,S1aH4,S2aH2,S4aH6,S5b1006h08,S3aH3</t>
-  </si>
-  <si>
-    <t>S1aH7,S4aH7,S5aH7,S2aH1,S3aH7,S5aH8,S5b1006h23,S6aH8,S3aH1,S5b1006h20,S5b1006h19,S4aH8,S5b1006h02,S5b1006h04,S1aH1,S2aH7,S2aH8,S1aH8,S5aH1,S5b1006h01,S5b1006h06,S5b1006h24,S6aH7,S3aH8,S5b1006h05,S5b1006h21,S5b1006h22,S5b1006h03,S4aH1,S6aH1</t>
+    <t>S4aH5,S5b1006h07,S3aH2,S5b1006h09,S5b1006h15,S5aH4,S6aH3,S6aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S5b1006h16,S5b1006h18,S6aH5,S5b1006h10,S5b1006h13,S4aH2,S3aH3,S3aH4,S4aH3,S4aH4,S5b1006h17,S5b1006h14,S1aH4,S2aH2,S4aH6,S5b1006h08,S2aH6,S3aH5,S5aH3,S5b1006h11,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S1aH6,S5b1006h12</t>
+  </si>
+  <si>
+    <t>S5b1006h03,S3aH8,S5b1006h05,S5b1006h21,S2aH8,S5b1006h19,S1aH7,S4aH7,S5aH7,S4aH8,S5b1006h02,S3aH1,S5b1006h20,S2aH1,S3aH7,S5aH8,S5b1006h23,S5b1006h22,S1aH1,S2aH7,S4aH1,S6aH1,S1aH8,S5aH1,S5b1006h01,S5b1006h06,S5b1006h24,S6aH7,S5b1006h04,S6aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -673,10 +673,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -884,7 +883,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -906,16 +905,14 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -960,7 +957,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EC1EF9-731B-9C6C-7BA4-28FB96F7840E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE26FF1C-CCED-9D78-2D40-3040CB4213BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1365,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S4aH7,S5aH7,S2aH1,S3aH7,S5aH8,S5b1006h23,S6aH8,S3aH1,S5b1006h20,S5b1006h19,S4aH8,S5b1006h02,S5b1006h04,S1aH1,S2aH7,S2aH8,S1aH8,S5aH1,S5b1006h01,S5b1006h06,S5b1006h24,S6aH7,S3aH8,S5b1006h05,S5b1006h21,S5b1006h22,S5b1006h03,S4aH1,S6aH1</v>
+        <v>S5b1006h03,S3aH8,S5b1006h05,S5b1006h21,S2aH8,S5b1006h19,S1aH7,S4aH7,S5aH7,S4aH8,S5b1006h02,S3aH1,S5b1006h20,S2aH1,S3aH7,S5aH8,S5b1006h23,S5b1006h22,S1aH1,S2aH7,S4aH1,S6aH1,S1aH8,S5aH1,S5b1006h01,S5b1006h06,S5b1006h24,S6aH7,S5b1006h04,S6aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1400,7 +1397,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S5aH4,S6aH3,S6aH4,S1aH3,S4aH2,S1aH6,S5b1006h12,S5b1006h10,S5b1006h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S5b1006h16,S5b1006h18,S6aH5,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S5b1006h14,S2aH6,S3aH5,S5aH3,S5b1006h11,S3aH2,S5b1006h09,S5b1006h15,S3aH4,S4aH3,S4aH4,S5b1006h17,S4aH5,S5b1006h07,S1aH4,S2aH2,S4aH6,S5b1006h08,S3aH3</v>
+        <v>S4aH5,S5b1006h07,S3aH2,S5b1006h09,S5b1006h15,S5aH4,S6aH3,S6aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S5b1006h16,S5b1006h18,S6aH5,S5b1006h10,S5b1006h13,S4aH2,S3aH3,S3aH4,S4aH3,S4aH4,S5b1006h17,S5b1006h14,S1aH4,S2aH2,S4aH6,S5b1006h08,S2aH6,S3aH5,S5aH3,S5b1006h11,S1aH2,S2aH3,S3aH6,S5aH6,S6aH6,S1aH6,S5b1006h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2013,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD2B04A-394E-48E3-9D7B-92BCECBE1238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E159C22-10A1-44DB-B7DE-299BC3458F13}">
   <dimension ref="B2:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2334,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8436A-4CC3-4075-BB9C-D697911E8497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73886D7-0490-42A0-B371-55086B3DF3BF}">
   <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2353,16 +2350,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -2415,13 +2412,13 @@
       <c r="O10" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2453,8 +2450,8 @@
       <c r="L11" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M11" s="17">
-        <v>127.34440943455283</v>
+      <c r="M11" s="14">
+        <v>2.7667697639289526E-2</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>121</v>
@@ -2462,13 +2459,13 @@
       <c r="O11" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Q11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="22">
-        <v>9.1508786743363754E-2</v>
-      </c>
-      <c r="S11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S11" s="19" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2500,8 +2497,8 @@
       <c r="L12" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="M12" s="18">
-        <v>17.936718851933588</v>
+      <c r="M12" s="16">
+        <v>3.7762969838562965E-3</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>121</v>
@@ -2509,13 +2506,13 @@
       <c r="O12" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="Q12" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" s="24">
-        <v>8.4099424771755762E-2</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="22">
+        <v>9.1508786743363754E-2</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2547,8 +2544,8 @@
       <c r="L13" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="M13" s="17">
-        <v>18.18705938375458</v>
+      <c r="M13" s="14">
+        <v>3.8057583791409827E-3</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>121</v>
@@ -2556,13 +2553,13 @@
       <c r="O13" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Q13" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="22">
-        <v>0.32347881154678343</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0.19055359121853394</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2594,8 +2591,8 @@
       <c r="L14" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="18">
-        <v>18.209124388720063</v>
+      <c r="M14" s="16">
+        <v>3.8146327566167043E-3</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>121</v>
@@ -2603,13 +2600,13 @@
       <c r="O14" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="Q14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" s="24">
-        <v>0.19055359121853394</v>
-      </c>
-      <c r="S14" s="23" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="22">
+        <v>8.4099424771755762E-2</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2641,8 +2638,8 @@
       <c r="L15" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="17">
-        <v>116.3513046609435</v>
+      <c r="M15" s="14">
+        <v>2.4554589397288176E-2</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>121</v>
@@ -2650,13 +2647,13 @@
       <c r="O15" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="20">
         <v>0.34475697926011922</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="19" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2688,8 +2685,8 @@
       <c r="L16" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="18">
-        <v>40.96887482286764</v>
+      <c r="M16" s="16">
+        <v>8.6789853047830341E-3</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>121</v>
@@ -2697,13 +2694,13 @@
       <c r="O16" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="Q16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" s="24">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="S16" s="23" t="s">
+      <c r="Q16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0.32347881154678343</v>
+      </c>
+      <c r="S16" s="21" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2735,8 +2732,8 @@
       <c r="L17" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="17">
-        <v>20.512670011751311</v>
+      <c r="M17" s="14">
+        <v>4.3631262689368426E-3</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>121</v>
@@ -2773,8 +2770,8 @@
       <c r="L18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="18">
-        <v>98.696013110461891</v>
+      <c r="M18" s="16">
+        <v>2.1119789066676987E-2</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>121</v>
@@ -2811,8 +2808,8 @@
       <c r="L19" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="17">
-        <v>236.74547431409394</v>
+      <c r="M19" s="14">
+        <v>4.9536918504621323E-2</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>121</v>
@@ -2849,8 +2846,8 @@
       <c r="L20" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="18">
-        <v>33.060388489956303</v>
+      <c r="M20" s="16">
+        <v>6.8871895397622871E-3</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>121</v>
@@ -2887,8 +2884,8 @@
       <c r="L21" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="17">
-        <v>33.553080432534244</v>
+      <c r="M21" s="14">
+        <v>6.9978997382806381E-3</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>121</v>
@@ -2925,8 +2922,8 @@
       <c r="L22" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="18">
-        <v>33.773136745312982</v>
+      <c r="M22" s="16">
+        <v>7.0357601623926101E-3</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>121</v>
@@ -2963,8 +2960,8 @@
       <c r="L23" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M23" s="17">
-        <v>198.77984887056778</v>
+      <c r="M23" s="14">
+        <v>4.173790683931921E-2</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>121</v>
@@ -3001,8 +2998,8 @@
       <c r="L24" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="18">
-        <v>69.162915605201079</v>
+      <c r="M24" s="16">
+        <v>1.4564209218352733E-2</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>121</v>
@@ -3039,8 +3036,8 @@
       <c r="L25" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M25" s="17">
-        <v>35.329820630371238</v>
+      <c r="M25" s="14">
+        <v>7.4135954333202411E-3</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>121</v>
@@ -3077,8 +3074,8 @@
       <c r="L26" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="M26" s="18">
-        <v>171.87608836497395</v>
+      <c r="M26" s="16">
+        <v>3.6100612329077228E-2</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>121</v>
@@ -3115,8 +3112,8 @@
       <c r="L27" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="M27" s="17">
-        <v>314.98069036849489</v>
+      <c r="M27" s="14">
+        <v>6.5724240355904795E-2</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>121</v>
@@ -3153,8 +3150,8 @@
       <c r="L28" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="18">
-        <v>43.268623800306933</v>
+      <c r="M28" s="16">
+        <v>9.0181758128231818E-3</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>121</v>
@@ -3191,8 +3188,8 @@
       <c r="L29" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="M29" s="17">
-        <v>43.36200892271134</v>
+      <c r="M29" s="14">
+        <v>9.047887452717231E-3</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>121</v>
@@ -3229,8 +3226,8 @@
       <c r="L30" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="18">
-        <v>43.941870132167018</v>
+      <c r="M30" s="16">
+        <v>9.189727977476329E-3</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>121</v>
@@ -3267,8 +3264,8 @@
       <c r="L31" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M31" s="17">
-        <v>268.52634924870955</v>
+      <c r="M31" s="14">
+        <v>5.6023396077010866E-2</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>121</v>
@@ -3305,8 +3302,8 @@
       <c r="L32" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="M32" s="18">
-        <v>92.19487477006588</v>
+      <c r="M32" s="16">
+        <v>1.9067729664208822E-2</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>121</v>
@@ -3343,8 +3340,8 @@
       <c r="L33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M33" s="17">
-        <v>45.240208751338685</v>
+      <c r="M33" s="14">
+        <v>9.3748790121043913E-3</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>121</v>
@@ -3381,8 +3378,8 @@
       <c r="L34" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="M34" s="18">
-        <v>228.59778758589283</v>
+      <c r="M34" s="16">
+        <v>4.7581478639672783E-2</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>121</v>
@@ -3419,8 +3416,8 @@
       <c r="L35" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M35" s="17">
-        <v>247.12766700802726</v>
+      <c r="M35" s="14">
+        <v>5.0914177778469551E-2</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>121</v>
@@ -3457,8 +3454,8 @@
       <c r="L36" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M36" s="18">
-        <v>34.217575534918673</v>
+      <c r="M36" s="16">
+        <v>6.9864093416431277E-3</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>121</v>
@@ -3495,8 +3492,8 @@
       <c r="L37" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M37" s="17">
-        <v>35.026594954223754</v>
+      <c r="M37" s="14">
+        <v>7.1535854231870788E-3</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>121</v>
@@ -3533,8 +3530,8 @@
       <c r="L38" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="18">
-        <v>35.838933627660225</v>
+      <c r="M38" s="16">
+        <v>7.3433717912017088E-3</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>121</v>
@@ -3571,8 +3568,8 @@
       <c r="L39" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="M39" s="17">
-        <v>224.34149899300473</v>
+      <c r="M39" s="14">
+        <v>4.5807737642621707E-2</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>121</v>
@@ -3609,8 +3606,8 @@
       <c r="L40" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="M40" s="18">
-        <v>77.850725227547528</v>
+      <c r="M40" s="16">
+        <v>1.6040735181819282E-2</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>121</v>
@@ -3647,8 +3644,8 @@
       <c r="L41" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M41" s="17">
-        <v>38.658922237918532</v>
+      <c r="M41" s="14">
+        <v>7.9459124197177097E-3</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>121</v>
@@ -3685,8 +3682,8 @@
       <c r="L42" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="M42" s="18">
-        <v>188.24334910855828</v>
+      <c r="M42" s="16">
+        <v>3.8608133260789011E-2</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>121</v>
@@ -3723,8 +3720,8 @@
       <c r="L43" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M43" s="17">
-        <v>286.03568142221292</v>
+      <c r="M43" s="14">
+        <v>6.0718438090433639E-2</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>121</v>
@@ -3761,8 +3758,8 @@
       <c r="L44" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="M44" s="18">
-        <v>39.470569881237708</v>
+      <c r="M44" s="16">
+        <v>8.3811145993273242E-3</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>121</v>
@@ -3799,8 +3796,8 @@
       <c r="L45" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M45" s="17">
-        <v>39.795483790395444</v>
+      <c r="M45" s="14">
+        <v>8.4506378735172832E-3</v>
       </c>
       <c r="N45" s="13" t="s">
         <v>121</v>
@@ -3837,8 +3834,8 @@
       <c r="L46" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="M46" s="18">
-        <v>39.670628154274631</v>
+      <c r="M46" s="16">
+        <v>8.4377256479465784E-3</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>121</v>
@@ -3875,8 +3872,8 @@
       <c r="L47" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="M47" s="17">
-        <v>222.74297610137882</v>
+      <c r="M47" s="14">
+        <v>4.7332722859194591E-2</v>
       </c>
       <c r="N47" s="13" t="s">
         <v>121</v>
@@ -3913,8 +3910,8 @@
       <c r="L48" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="M48" s="18">
-        <v>77.043957548519103</v>
+      <c r="M48" s="16">
+        <v>1.6310069728516161E-2</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>121</v>
@@ -3951,8 +3948,8 @@
       <c r="L49" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M49" s="17">
-        <v>38.790979593860008</v>
+      <c r="M49" s="14">
+        <v>8.1703985035484743E-3</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>121</v>
@@ -3989,8 +3986,8 @@
       <c r="L50" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="M50" s="18">
-        <v>198.42314335241332</v>
+      <c r="M50" s="16">
+        <v>4.184835203252163E-2</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>121</v>
@@ -4027,8 +4024,8 @@
       <c r="L51" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M51" s="17">
-        <v>1.25431920229359E-2</v>
+      <c r="M51" s="14">
+        <v>1.44988213896218E-6</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>121</v>
@@ -4065,8 +4062,8 @@
       <c r="L52" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="M52" s="18">
-        <v>8.7183747853399E-3</v>
+      <c r="M52" s="16">
+        <v>1.523613733566155E-6</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>121</v>
@@ -4103,8 +4100,8 @@
       <c r="L53" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="M53" s="17">
-        <v>7.0492420276354996E-3</v>
+      <c r="M53" s="14">
+        <v>1.1731830480348306E-6</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>121</v>
@@ -4141,8 +4138,8 @@
       <c r="L54" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="M54" s="18">
-        <v>1.8532355328176001E-3</v>
+      <c r="M54" s="16">
+        <v>3.191766207304846E-7</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>121</v>
@@ -4179,8 +4176,8 @@
       <c r="L55" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M55" s="17">
-        <v>2.3363524325700001E-3</v>
+      <c r="M55" s="14">
+        <v>3.989029107875207E-7</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>121</v>
@@ -4217,8 +4214,8 @@
       <c r="L56" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="M56" s="18">
-        <v>2.0953079977972999E-3</v>
+      <c r="M56" s="16">
+        <v>3.5302667712830082E-7</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>121</v>
@@ -4255,8 +4252,8 @@
       <c r="L57" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="M57" s="17">
-        <v>3.6747244262994002E-3</v>
+      <c r="M57" s="14">
+        <v>6.3462369114051736E-7</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>121</v>
@@ -4293,8 +4290,8 @@
       <c r="L58" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="M58" s="18">
-        <v>1.5777707703478899E-2</v>
+      <c r="M58" s="16">
+        <v>2.3033186134865828E-6</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>121</v>
@@ -4331,8 +4328,8 @@
       <c r="L59" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="M59" s="17">
-        <v>3.9917886797465003E-2</v>
+      <c r="M59" s="14">
+        <v>7.530230801523832E-6</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>121</v>
@@ -4369,8 +4366,8 @@
       <c r="L60" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="M60" s="18">
-        <v>6.4939079244764303E-2</v>
+      <c r="M60" s="16">
+        <v>1.2131927642560168E-5</v>
       </c>
       <c r="N60" s="15" t="s">
         <v>121</v>
@@ -4407,8 +4404,8 @@
       <c r="L61" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="M61" s="17">
-        <v>9.2737565534838501E-2</v>
+      <c r="M61" s="14">
+        <v>1.8060911062267329E-5</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>121</v>
@@ -4445,8 +4442,8 @@
       <c r="L62" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="M62" s="18">
-        <v>0.13588162343746929</v>
+      <c r="M62" s="16">
+        <v>2.6212494399421199E-5</v>
       </c>
       <c r="N62" s="15" t="s">
         <v>121</v>
@@ -4483,8 +4480,8 @@
       <c r="L63" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M63" s="17">
-        <v>0.14306137192418081</v>
+      <c r="M63" s="14">
+        <v>2.7641768200064929E-5</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>121</v>
@@ -4521,8 +4518,8 @@
       <c r="L64" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="M64" s="18">
-        <v>0.1206271759458008</v>
+      <c r="M64" s="16">
+        <v>2.3531260917765037E-5</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>121</v>
@@ -4559,8 +4556,8 @@
       <c r="L65" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="M65" s="17">
-        <v>0.11865671140744689</v>
+      <c r="M65" s="14">
+        <v>2.2994519242244803E-5</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>121</v>
@@ -4597,8 +4594,8 @@
       <c r="L66" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="M66" s="18">
-        <v>0.1285749531592445</v>
+      <c r="M66" s="16">
+        <v>2.5073197583359571E-5</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>121</v>
@@ -4635,8 +4632,8 @@
       <c r="L67" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="M67" s="17">
-        <v>0.14510719244728679</v>
+      <c r="M67" s="14">
+        <v>2.8524161201808805E-5</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>121</v>
@@ -4673,8 +4670,8 @@
       <c r="L68" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="M68" s="18">
-        <v>0.1724287775530608</v>
+      <c r="M68" s="16">
+        <v>3.3799749919429065E-5</v>
       </c>
       <c r="N68" s="15" t="s">
         <v>121</v>
@@ -4711,8 +4708,8 @@
       <c r="L69" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="M69" s="17">
-        <v>0.21888254829158049</v>
+      <c r="M69" s="14">
+        <v>4.2803732493409308E-5</v>
       </c>
       <c r="N69" s="13" t="s">
         <v>121</v>
@@ -4749,8 +4746,8 @@
       <c r="L70" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="M70" s="18">
-        <v>0.26248604442958839</v>
+      <c r="M70" s="16">
+        <v>5.156007175174158E-5</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>121</v>
@@ -4787,8 +4784,8 @@
       <c r="L71" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="17">
-        <v>0.2905811338148932</v>
+      <c r="M71" s="14">
+        <v>5.686712170057242E-5</v>
       </c>
       <c r="N71" s="13" t="s">
         <v>121</v>
@@ -4825,8 +4822,8 @@
       <c r="L72" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="M72" s="18">
-        <v>0.3350898562639969</v>
+      <c r="M72" s="16">
+        <v>6.557836810859981E-5</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>121</v>
@@ -4863,8 +4860,8 @@
       <c r="L73" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="M73" s="17">
-        <v>0.43821718529060438</v>
+      <c r="M73" s="14">
+        <v>8.6091697568738015E-5</v>
       </c>
       <c r="N73" s="13" t="s">
         <v>121</v>
@@ -4901,8 +4898,8 @@
       <c r="L74" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="M74" s="18">
-        <v>0.4179459849254244</v>
+      <c r="M74" s="16">
+        <v>8.204607632899634E-5</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>121</v>
@@ -4939,8 +4936,8 @@
       <c r="L75" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="M75" s="17">
-        <v>169.10309860617267</v>
+      <c r="M75" s="14">
+        <v>3.6662071087535136E-2</v>
       </c>
       <c r="N75" s="13" t="s">
         <v>121</v>
@@ -4977,8 +4974,8 @@
       <c r="L76" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="M76" s="18">
-        <v>23.985187432088011</v>
+      <c r="M76" s="16">
+        <v>5.330109965263727E-3</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>121</v>
@@ -5015,8 +5012,8 @@
       <c r="L77" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="M77" s="17">
-        <v>23.958707950812247</v>
+      <c r="M77" s="14">
+        <v>5.3335867092306685E-3</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>121</v>
@@ -5053,8 +5050,8 @@
       <c r="L78" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="M78" s="18">
-        <v>24.447082907321526</v>
+      <c r="M78" s="16">
+        <v>5.5226868815515763E-3</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>121</v>
@@ -5091,8 +5088,8 @@
       <c r="L79" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M79" s="17">
-        <v>145.4691779319914</v>
+      <c r="M79" s="14">
+        <v>3.1515657407784566E-2</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>121</v>
@@ -5129,8 +5126,8 @@
       <c r="L80" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="M80" s="18">
-        <v>47.742216627882641</v>
+      <c r="M80" s="16">
+        <v>1.0408000848768471E-2</v>
       </c>
       <c r="N80" s="15" t="s">
         <v>121</v>
@@ -5167,8 +5164,8 @@
       <c r="L81" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M81" s="17">
-        <v>23.688633450985318</v>
+      <c r="M81" s="14">
+        <v>5.1164171189268335E-3</v>
       </c>
       <c r="N81" s="13" t="s">
         <v>121</v>
@@ -5205,8 +5202,8 @@
       <c r="L82" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="M82" s="18">
-        <v>120.06411007239235</v>
+      <c r="M82" s="16">
+        <v>2.5960862236259676E-2</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>121</v>
@@ -5225,7 +5222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AF14CF-F19D-4B93-A1EE-E11CD21879E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0A4F50-FF25-4246-BBA0-04DCB3D78ACA}">
   <dimension ref="B2:O147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_s1_d.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_s1_d.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C4DDC-1AB8-4928-9DC5-D61EAAF09EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CCAD025-8DC5-4081-9FA8-D5FB23029613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="209">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -265,13 +250,434 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>wparent</t>
+  </si>
+  <si>
+    <t>dparent</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1006h01</t>
+  </si>
+  <si>
+    <t>S1,S2,S3,S4,S5,S6</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>1006h02</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>1006h03</t>
+  </si>
+  <si>
+    <t>1006h04</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>1006h05</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>1006h06</t>
+  </si>
+  <si>
+    <t>1006h07</t>
+  </si>
+  <si>
+    <t>1006h08</t>
+  </si>
+  <si>
+    <t>1006h09</t>
+  </si>
+  <si>
+    <t>1006h10</t>
+  </si>
+  <si>
+    <t>1006h11</t>
+  </si>
+  <si>
+    <t>1006h12</t>
+  </si>
+  <si>
+    <t>1006h13</t>
+  </si>
+  <si>
+    <t>1006h14</t>
+  </si>
+  <si>
+    <t>1006h15</t>
+  </si>
+  <si>
+    <t>1006h16</t>
+  </si>
+  <si>
+    <t>1006h17</t>
+  </si>
+  <si>
+    <t>1006h18</t>
+  </si>
+  <si>
+    <t>1006h19</t>
+  </si>
+  <si>
+    <t>1006h20</t>
+  </si>
+  <si>
+    <t>1006h21</t>
+  </si>
+  <si>
+    <t>1006h22</t>
+  </si>
+  <si>
+    <t>1006h23</t>
+  </si>
+  <si>
+    <t>1006h24</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-DEU</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S1aH5</t>
+  </si>
+  <si>
+    <t>S1aH6</t>
+  </si>
+  <si>
+    <t>S1aH7</t>
+  </si>
+  <si>
+    <t>S1aH8</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>S2aH5</t>
+  </si>
+  <si>
+    <t>S2aH6</t>
+  </si>
+  <si>
+    <t>S2aH7</t>
+  </si>
+  <si>
+    <t>S2aH8</t>
+  </si>
+  <si>
+    <t>S3aH1</t>
+  </si>
+  <si>
+    <t>S3aH2</t>
+  </si>
+  <si>
+    <t>S3aH3</t>
+  </si>
+  <si>
+    <t>S3aH4</t>
+  </si>
+  <si>
+    <t>S3aH5</t>
+  </si>
+  <si>
+    <t>S3aH6</t>
+  </si>
+  <si>
+    <t>S3aH7</t>
+  </si>
+  <si>
+    <t>S3aH8</t>
+  </si>
+  <si>
+    <t>S4aH1</t>
+  </si>
+  <si>
+    <t>S4aH2</t>
+  </si>
+  <si>
+    <t>S4aH3</t>
+  </si>
+  <si>
+    <t>S4aH4</t>
+  </si>
+  <si>
+    <t>S4aH5</t>
+  </si>
+  <si>
+    <t>S4aH6</t>
+  </si>
+  <si>
+    <t>S4aH7</t>
+  </si>
+  <si>
+    <t>S4aH8</t>
+  </si>
+  <si>
+    <t>S4b1006h01</t>
+  </si>
+  <si>
+    <t>S4b1006h02</t>
+  </si>
+  <si>
+    <t>S4b1006h03</t>
+  </si>
+  <si>
+    <t>S4b1006h04</t>
+  </si>
+  <si>
+    <t>S4b1006h05</t>
+  </si>
+  <si>
+    <t>S4b1006h06</t>
+  </si>
+  <si>
+    <t>S4b1006h07</t>
+  </si>
+  <si>
+    <t>S4b1006h08</t>
+  </si>
+  <si>
+    <t>S4b1006h09</t>
+  </si>
+  <si>
+    <t>S4b1006h10</t>
+  </si>
+  <si>
+    <t>S4b1006h11</t>
+  </si>
+  <si>
+    <t>S4b1006h12</t>
+  </si>
+  <si>
+    <t>S4b1006h13</t>
+  </si>
+  <si>
+    <t>S4b1006h14</t>
+  </si>
+  <si>
+    <t>S4b1006h15</t>
+  </si>
+  <si>
+    <t>S4b1006h16</t>
+  </si>
+  <si>
+    <t>S4b1006h17</t>
+  </si>
+  <si>
+    <t>S4b1006h18</t>
+  </si>
+  <si>
+    <t>S4b1006h19</t>
+  </si>
+  <si>
+    <t>S4b1006h20</t>
+  </si>
+  <si>
+    <t>S4b1006h21</t>
+  </si>
+  <si>
+    <t>S4b1006h22</t>
+  </si>
+  <si>
+    <t>S4b1006h23</t>
+  </si>
+  <si>
+    <t>S4b1006h24</t>
+  </si>
+  <si>
+    <t>S5aH1</t>
+  </si>
+  <si>
+    <t>S5aH2</t>
+  </si>
+  <si>
+    <t>S5aH3</t>
+  </si>
+  <si>
+    <t>S5aH4</t>
+  </si>
+  <si>
+    <t>S5aH5</t>
+  </si>
+  <si>
+    <t>S5aH6</t>
+  </si>
+  <si>
+    <t>S5aH7</t>
+  </si>
+  <si>
+    <t>S5aH8</t>
+  </si>
+  <si>
+    <t>S6aH1</t>
+  </si>
+  <si>
+    <t>S6aH2</t>
+  </si>
+  <si>
+    <t>S6aH3</t>
+  </si>
+  <si>
+    <t>S6aH4</t>
+  </si>
+  <si>
+    <t>S6aH5</t>
+  </si>
+  <si>
+    <t>S6aH6</t>
+  </si>
+  <si>
+    <t>S6aH7</t>
+  </si>
+  <si>
+    <t>S6aH8</t>
+  </si>
+  <si>
+    <t>elc_won-DEU</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S4b1006h10,S3aH3,S4b1006h14,S3aH7,S4b1006h08,S4b1006h16,S4aH5,S4b1006h12,S1aH6,S2aH6,S3aH5,S5aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S4b1006h18,S5aH6,S5aH7,S6aH6,S4aH2,S4b1006h09,S1aH4,S2aH2,S4aH6,S4b1006h17,S4b1006h07,S6aH5,S1aH5,S2aH4,S2aH5,S4b1006h13,S5aH2,S5aH5,S6aH2,S6aH7,S1aH3,S4b1006h11,S4b1006h15,S5aH4,S6aH3,S6aH4</t>
+  </si>
+  <si>
+    <t>S3aH8,S4b1006h20,S4b1006h22,S1aH1,S2aH8,S4b1006h02,S4b1006h05,S4b1006h19,S6aH8,S1aH8,S5aH1,S4b1006h06,S4b1006h23,S2aH1,S4b1006h24,S5aH8,S4aH1,S4b1006h01,S4b1006h21,S6aH1,S4aH8,S4b1006h03,S3aH1,S4b1006h04</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +731,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,8 +782,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -391,6 +842,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -402,7 +883,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,6 +899,22 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -440,6 +937,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64682063-DEBB-EB1D-28A5-6971FAB209E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C142E8A6-737F-F5B8-6CD9-89398B85EDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF95796-21EC-C5F3-4DC0-DC766D1882C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +1419,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -778,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -793,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -801,21 +1463,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>S3aH8,S4b1006h20,S4b1006h22,S1aH1,S2aH8,S4b1006h02,S4b1006h05,S4b1006h19,S6aH8,S1aH8,S5aH1,S4b1006h06,S4b1006h23,S2aH1,S4b1006h24,S5aH8,S4aH1,S4b1006h01,S4b1006h21,S6aH1,S4aH8,S4b1006h03,S3aH1,S4b1006h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -833,21 +1495,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>S3aH2,S2aH7,S3aH4,S4aH3,S4aH4,S4b1006h10,S3aH3,S4b1006h14,S3aH7,S4b1006h08,S4b1006h16,S4aH5,S4b1006h12,S1aH6,S2aH6,S3aH5,S5aH3,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S4b1006h18,S5aH6,S5aH7,S6aH6,S4aH2,S4b1006h09,S1aH4,S2aH2,S4aH6,S4b1006h17,S4b1006h07,S6aH5,S1aH5,S2aH4,S2aH5,S4b1006h13,S5aH2,S5aH5,S6aH2,S6aH7,S1aH3,S4b1006h11,S4b1006h15,S5aH4,S6aH3,S6aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -859,26 +1521,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -906,555 +1568,7054 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9EB8CA-3BA9-4EAD-A2B9-720AD3EBDFE9}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E166B53-7859-4669-A4F3-4E117B960B09}">
+  <dimension ref="A1:S82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="15">
+        <v>4.4155047742032917E-2</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="15">
+        <v>4.1260569098008119E-2</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="22">
+        <v>7.4790226397171353E-2</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2.1283100409942801E-4</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1.4963249273474264E-2</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1.3294769041962992E-2</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0.18244762256583458</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2.5148696506666463E-3</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="15">
+        <v>7.4313732460396372E-3</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="15">
+        <v>6.700825074373795E-3</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" s="22">
+        <v>9.0812180062272388E-2</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="16">
+        <v>5.4922726320188048E-2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4.3114245149168305E-2</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="16">
+        <v>4.1371091558380979E-2</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="24">
+        <v>8.4099424771755762E-2</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7.6359461191081619E-3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="15">
+        <v>7.1388004470522284E-3</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="15">
+        <v>7.1362262825551354E-3</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="22">
+        <v>0.32525199218956147</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4.884449944847249E-3</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="16">
+        <v>7.1465471045658894E-3</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="16">
+        <v>7.2272561274033635E-3</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="24">
+        <v>0.44259855401340426</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1.8062387930995159E-3</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="15">
+        <v>7.2770367486697917E-3</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="15">
+        <v>7.315286081540434E-3</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1.260548737735539E-4</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="16">
+        <v>4.4361212419593996E-2</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="16">
+        <v>4.2923534807303397E-2</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1.7390279363962665E-3</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="15">
+        <v>6.1882470401995467E-2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="15">
+        <v>5.9930855320376959E-2</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2.1971918374961475E-2</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1.9456007750620972E-2</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="16">
+        <v>1.8994817223040472E-2</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2.2157748006930236E-2</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="15">
+        <v>9.3649021249454182E-3</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="15">
+        <v>9.4150737926857065E-3</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.18317375334438513</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="16">
+        <v>5.7630321498623502E-2</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="16">
+        <v>5.6505457989105404E-2</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2.6843305493527283E-2</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1.0110661114281284E-2</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="15">
+        <v>9.9287999209599544E-3</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2.1783319555425947E-2</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="16">
+        <v>9.9304589342821027E-3</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="16">
+        <v>1.0019593495042625E-2</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1.5835241922002977E-2</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="15">
+        <v>9.7268951856563698E-3</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N25" s="15">
+        <v>9.967873940108703E-3</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.2017929393879136E-2</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="16">
+        <v>6.3091175190179774E-2</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26" s="16">
+        <v>6.0759972769615186E-2</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="15">
+        <v>6.5839550911715814E-3</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="15">
+        <v>6.1852165166704706E-2</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N27" s="15">
+        <v>6.5694628426389748E-2</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4.5808408638341395E-2</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1.9408695163963516E-2</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" s="16">
+        <v>2.1335466846591784E-2</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="15">
+        <v>3.6435888890107751E-2</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="15">
+        <v>9.5701218410950348E-3</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="15">
+        <v>1.0889232126266428E-2</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.27215930252576342</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="16">
+        <v>6.0351727551814165E-2</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="16">
+        <v>6.8569035616062535E-2</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="15">
+        <v>4.110144774332522E-2</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1.08301957472985E-2</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="15">
+        <v>1.1996511276863308E-2</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="16">
+        <v>3.5754804417117897E-2</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1.0510624098257612E-2</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N32" s="16">
+        <v>1.1954875801890965E-2</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2.8604412044343754E-2</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1.0236707039421273E-2</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N33" s="15">
+        <v>1.1866773923177783E-2</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="16">
+        <v>3.1013581341059825E-2</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="16">
+        <v>6.486299979233251E-2</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N34" s="16">
+        <v>6.8824018853376606E-2</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="15">
+        <v>2.8789893965614637E-2</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N35" s="15">
+        <v>2.9564144638251192E-2</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1.7831535465912037E-3</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="16">
+        <v>9.9607380566986998E-3</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N36" s="16">
+        <v>9.8288691569324155E-3</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="15">
+        <v>3.8669880115744467E-3</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="15">
+        <v>4.8294494372146113E-3</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N37" s="15">
+        <v>4.8116961634282395E-3</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="16">
+        <v>4.3484321529734228E-2</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="16">
+        <v>2.6901862893406413E-2</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="N38" s="16">
+        <v>2.6923580725345581E-2</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="15">
+        <v>6.3481122768748602E-3</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="15">
+        <v>4.5052222106987021E-3</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" s="15">
+        <v>4.3864257891728271E-3</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="16">
+        <v>4.5887985913370495E-3</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="16">
+        <v>4.609711215205127E-3</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N40" s="16">
+        <v>4.6074774446566245E-3</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1.8721038948726228E-3</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" s="15">
+        <v>4.739033612260927E-3</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="N41" s="15">
+        <v>4.6448589059595938E-3</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1.9636221821532363E-4</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="16">
+        <v>2.9513382385232958E-2</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="N42" s="16">
+        <v>2.7897026917347346E-2</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I43" s="15">
+        <v>2.8506573327434289E-5</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" s="15">
+        <v>1.44988213896218E-6</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="16">
+        <v>2.4337220951420891E-5</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" s="16">
+        <v>1.523613733566155E-6</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1.971789554450978E-5</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N45" s="15">
+        <v>1.1731830480348306E-6</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="16">
+        <v>1.7529012619929225E-5</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N46" s="16">
+        <v>3.191766207304846E-7</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B47" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1.6390494313295294E-5</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" s="15">
+        <v>3.989029107875207E-7</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B48" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="16">
+        <v>1.303933586582716E-5</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N48" s="16">
+        <v>3.5302667712830082E-7</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1.0685070718111404E-5</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N49" s="15">
+        <v>6.3462369114051736E-7</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B50" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="16">
+        <v>8.6959533267832638E-6</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="16">
+        <v>1.0419011915756948E-5</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="N50" s="16">
+        <v>2.3033186134865828E-6</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B51" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="15">
+        <v>2.8022329701780007E-5</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1.02718956039358E-5</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N51" s="15">
+        <v>7.530230801523832E-6</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B52" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="16">
+        <v>4.7613538160050058E-5</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I52" s="16">
+        <v>9.4404321569721215E-6</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="N52" s="16">
+        <v>1.2131927642560168E-5</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="15">
+        <v>6.8911691850348609E-5</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="15">
+        <v>7.7715796828536144E-6</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N53" s="15">
+        <v>1.8060911062267329E-5</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="16">
+        <v>8.8078731657053553E-5</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="16">
+        <v>7.6434829553905244E-6</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N54" s="16">
+        <v>2.6212494399421199E-5</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B55" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="15">
+        <v>9.9134479780565107E-5</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1.1930199972543029E-5</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N55" s="15">
+        <v>2.7641768200064929E-5</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1.124954710961E-4</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" s="16">
+        <v>1.5170722051069231E-5</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N56" s="16">
+        <v>2.3531260917765037E-5</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1.0325776692539999E-4</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I57" s="15">
+        <v>1.840462191585694E-5</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="N57" s="15">
+        <v>2.2994519242244803E-5</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="16">
+        <v>8.9447506332019633E-5</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="16">
+        <v>1.8879600156053442E-5</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N58" s="16">
+        <v>2.5073197583359571E-5</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B59" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="15">
+        <v>6.0280175231801832E-5</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I59" s="15">
+        <v>2.0105461868299867E-5</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N59" s="15">
+        <v>2.8524161201808805E-5</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B60" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="16">
+        <v>3.3493743892819454E-5</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="16">
+        <v>1.9834157076084809E-5</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="N60" s="16">
+        <v>3.3799749919429065E-5</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B61" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="15">
+        <v>2.9970651830318938E-6</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61" s="15">
+        <v>2.2973244542486662E-5</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="N61" s="15">
+        <v>4.2803732493409308E-5</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B62" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="16">
+        <v>2.9371957733785545E-5</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="N62" s="16">
+        <v>5.156007175174158E-5</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B63" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I63" s="15">
+        <v>3.3904847763952998E-5</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="N63" s="15">
+        <v>5.686712170057242E-5</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B64" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" s="16">
+        <v>3.9185236963807563E-5</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N64" s="16">
+        <v>6.557836810859981E-5</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B65" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I65" s="15">
+        <v>4.7913592449489336E-5</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N65" s="15">
+        <v>8.6091697568738015E-5</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="16">
+        <v>0</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I66" s="16">
+        <v>5.0412180859024105E-5</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="N66" s="16">
+        <v>8.204607632899634E-5</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B67" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="15">
+        <v>0</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I67" s="15">
+        <v>2.3270983243587194E-2</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="N67" s="15">
+        <v>2.2641078810178395E-2</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B68" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1.0476133313176833E-4</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I68" s="16">
+        <v>7.7006075806026397E-3</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N68" s="16">
+        <v>7.0654600843989617E-3</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B69" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1.2538470161843739E-3</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I69" s="15">
+        <v>3.8119593032673637E-3</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N69" s="15">
+        <v>3.6389417100890437E-3</v>
+      </c>
+      <c r="O69" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B70" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="16">
+        <v>2.2926065465161544E-2</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I70" s="16">
+        <v>2.1471016169551323E-2</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="N70" s="16">
+        <v>2.0901827482290622E-2</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B71" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="15">
+        <v>2.9298361358901012E-3</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" s="15">
+        <v>3.548369714146351E-3</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="N71" s="15">
+        <v>3.5586145103321362E-3</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B72" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1.4138907096779235E-3</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="16">
+        <v>3.5428459222883462E-3</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N72" s="16">
+        <v>3.5418456183513775E-3</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B73" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="15">
+        <v>8.1893093857031315E-5</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="15">
+        <v>3.5743609788995074E-3</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N73" s="15">
+        <v>3.5158877595485652E-3</v>
+      </c>
+      <c r="O73" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B74" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="16">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I74" s="16">
+        <v>2.1859367861878292E-2</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N74" s="16">
+        <v>2.2121723618722756E-2</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B75" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="15">
+        <v>3.2736869650750684E-2</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N75" s="15">
+        <v>3.1304155900763839E-2</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I76" s="16">
+        <v>1.1375094226538667E-2</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N76" s="16">
+        <v>1.0688025152035027E-2</v>
+      </c>
+      <c r="O76" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B77" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1.0272097371431923E-3</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I77" s="15">
+        <v>5.7849962600277742E-3</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="N77" s="15">
+        <v>5.3335867092306685E-3</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B78" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="16">
+        <v>2.7457440120741562E-2</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I78" s="16">
+        <v>3.3017485165206945E-2</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N78" s="16">
+        <v>3.1929929515088919E-2</v>
+      </c>
+      <c r="O78" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="15">
+        <v>3.8252189848232226E-3</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I79" s="15">
+        <v>5.3404639714106361E-3</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N79" s="15">
+        <v>5.1084147742472196E-3</v>
+      </c>
+      <c r="O79" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="16">
+        <v>1.0104074563618622E-3</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I80" s="16">
+        <v>5.4775786312612857E-3</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L80" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="N80" s="16">
+        <v>5.1491966893765801E-3</v>
+      </c>
+      <c r="O80" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B81" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" s="15">
+        <v>0</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I81" s="15">
+        <v>5.5579987889586074E-3</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="N81" s="15">
+        <v>5.25880415939189E-3</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B82" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="16">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I82" s="16">
+        <v>3.3173230194001944E-2</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="N82" s="16">
+        <v>3.1077279355186508E-2</v>
+      </c>
+      <c r="O82" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B02C93E-2389-4E21-AB70-D1CBD6B26747}">
+  <dimension ref="A1:M154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
+        <v>4.041095890410959E-2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>8.6444737256461904E-3</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="15">
+        <v>3.6138622036271613E-2</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.20993758754647396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="16">
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2.1220031656846414E-2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1.753026644281238E-2</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0.10126849779399927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C13" s="15">
+        <v>8.6053584599192871E-3</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="15">
+        <v>9.323225878081709E-3</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="17">
+        <v>8.0333357720038912E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="16">
+        <v>4.041095890410959E-2</v>
+      </c>
+      <c r="C14" s="16">
+        <v>5.120188283651974E-2</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="16">
+        <v>5.6354898339289444E-2</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="18">
+        <v>8.5156903720867705E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1.016996908899552E-2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="15">
+        <v>9.4335915632671047E-3</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="17">
+        <v>8.31155395733576E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="16">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1.3103614018513452E-2</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="16">
+        <v>9.6263596139477565E-3</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="18">
+        <v>7.9506794508142686E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.3103614018513452E-2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="15">
+        <v>9.6700816802201377E-3</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="17">
+        <v>8.0562479560222666E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="16">
+        <v>4.041095890410959E-2</v>
+      </c>
+      <c r="C18" s="16">
+        <v>3.5594891811484314E-2</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="16">
+        <v>5.0177962677305961E-2</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.18372287613182636</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="15">
+        <v>6.3013698630136991E-2</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1.3479518351855079E-2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="15">
+        <v>4.8274931981588512E-2</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.33558918595336507</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3.3088862922540166E-2</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="16">
+        <v>2.341806623705987E-2</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.22810418069713312</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
+        <v>1.0502283105022832E-2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.3418525056145329E-2</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1.2643747780191573E-2</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0.19389874730862244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="16">
+        <v>6.3013698630136991E-2</v>
+      </c>
+      <c r="C22" s="16">
+        <v>7.9840224084064687E-2</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="16">
+        <v>7.4699148377615696E-2</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0.1985679977707393</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
+        <v>1.0502283105022832E-2</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1.585825688453538E-2</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1.2321874378055115E-2</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0.20890258506861725</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" s="16">
+        <v>1.0502283105022832E-2</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2.0432754062766744E-2</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1.2428238751812934E-2</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0.21380075008061561</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
+        <v>1.0502283105022832E-2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2.0432754062766744E-2</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1.2512785086468527E-2</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="17">
+        <v>0.211381012992089</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" s="16">
+        <v>6.3013698630136991E-2</v>
+      </c>
+      <c r="C26" s="16">
+        <v>5.5503899095873853E-2</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="16">
+        <v>6.4729605793992881E-2</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0.32204143107577599</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
+        <v>8.3561643835616442E-2</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1.7875013466590428E-2</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5.0093012266144155E-2</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0.20863082273118416</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B28" s="16">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C28" s="16">
+        <v>4.3878709527716317E-2</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="16">
+        <v>2.486643497826856E-2</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0.13886211938491178</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1.7794131052714456E-2</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1.3934765494576304E-2</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="17">
+        <v>8.7572698609882815E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B30" s="16">
+        <v>8.3561643835616442E-2</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.10587507976365099</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="16">
+        <v>8.4428394608275142E-2</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0.10067364753751318</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="15">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C31" s="15">
+        <v>2.1029427607753434E-2</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1.3904549287506457E-2</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" s="17">
+        <v>8.1294354051893336E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32" s="16">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C32" s="16">
+        <v>2.7095608648451557E-2</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1.3896386153591171E-2</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="18">
+        <v>7.8951505053118876E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2.7095608648451557E-2</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1.3876657624539592E-2</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="17">
+        <v>7.9807402852031029E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B34" s="16">
+        <v>8.3561643835616442E-2</v>
+      </c>
+      <c r="C34" s="16">
+        <v>7.3602996627137054E-2</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="16">
+        <v>7.1581920573300956E-2</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0.16407526324863331</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B35" s="15">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C35" s="15">
+        <v>4.3954951147353507E-3</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1.3288812062762953E-2</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" s="17">
+        <v>0.22725064566059183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36" s="16">
+        <v>6.8493150684931503E-3</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1.0789846605176146E-2</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="16">
+        <v>6.7474572967960887E-3</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0.11704485846903023</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37" s="15">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C37" s="15">
+        <v>4.3756059965691279E-3</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="15">
+        <v>3.6443732259320203E-3</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="17">
+        <v>6.4001254722724665E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B38" s="16">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C38" s="16">
+        <v>2.603485567958631E-2</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="16">
+        <v>2.1525299532527128E-2</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M38" s="18">
+        <v>7.2130195762337701E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B39" s="15">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C39" s="15">
+        <v>5.1711707232180593E-3</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="15">
+        <v>3.5418324549280596E-3</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M39" s="17">
+        <v>5.1883936258479535E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B40" s="16">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C40" s="16">
+        <v>6.662854585684809E-3</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="16">
+        <v>3.5629195954528991E-3</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M40" s="18">
+        <v>6.2873422120554689E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C41" s="15">
+        <v>6.662854585684809E-3</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" s="15">
+        <v>3.6046754012386628E-3</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M41" s="17">
+        <v>6.7579190490636876E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B42" s="16">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1.8099097531263209E-2</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="16">
+        <v>1.8539994452897352E-2</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M42" s="18">
+        <v>0.15631392567066316</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B43" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C43" s="15">
+        <v>2.1546544680075254E-5</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I43" s="15">
+        <v>6.4357138464299157E-5</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B44" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C44" s="16">
+        <v>1.4916838624667481E-5</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="16">
+        <v>6.0628122585161419E-5</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1.6574265138519424E-5</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="15">
+        <v>6.0628122585161419E-5</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B46" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1.4585353321897093E-5</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="16">
+        <v>6.0719843190951115E-5</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C47" s="15">
+        <v>2.1215059377304864E-5</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="15">
+        <v>6.1235771598518212E-5</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B48" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C48" s="16">
+        <v>5.7678442682047593E-5</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="16">
+        <v>6.2611580685363794E-5</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M48" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1.6905750441289813E-4</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49" s="15">
+        <v>7.4240033738140002E-5</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B50" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1.9060404909297337E-4</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="16">
+        <v>8.6854483303155531E-5</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B51" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C51" s="15">
+        <v>1.4585353321897094E-4</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="15">
+        <v>9.341537288605046E-5</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B52" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C52" s="16">
+        <v>1.4452759200788939E-4</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I52" s="16">
+        <v>9.6141194639363275E-5</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1.408812536774151E-4</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="15">
+        <v>9.4966024377682678E-5</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B54" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1.4054976837464471E-4</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="16">
+        <v>9.4880036309754831E-5</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B55" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C55" s="15">
+        <v>1.4253868019126702E-4</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" s="15">
+        <v>9.4576211803076431E-5</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B56" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C56" s="16">
+        <v>1.4883690094390442E-4</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" s="16">
+        <v>9.3555820063665921E-5</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B57" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C57" s="15">
+        <v>1.5049432745775637E-4</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I57" s="15">
+        <v>9.2876514327035927E-5</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B58" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C58" s="16">
+        <v>1.7237235744060203E-4</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="16">
+        <v>9.3160274951197832E-5</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M58" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B59" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C59" s="15">
+        <v>2.2209515285616027E-4</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I59" s="15">
+        <v>9.4490223735148584E-5</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="M59" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B60" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2.2209515285616027E-4</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="16">
+        <v>9.4748187938932112E-5</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="M60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B61" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1.7237235744060203E-4</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61" s="15">
+        <v>9.479404824182697E-5</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="M61" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B62" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1.5579809230208258E-4</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="16">
+        <v>9.4928762881580603E-5</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1.093901499142282E-4</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I63" s="15">
+        <v>9.3249129288056607E-5</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M63" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B64" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C64" s="16">
+        <v>7.9556472664893237E-5</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" s="16">
+        <v>8.7966595648355744E-5</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="M64" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C65" s="15">
+        <v>5.6352501470966035E-5</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I65" s="15">
+        <v>8.8551314510265094E-5</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="M65" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B66" s="16">
+        <v>1.1415525114155251E-4</v>
+      </c>
+      <c r="C66" s="16">
+        <v>2.9833677249334962E-5</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I66" s="16">
+        <v>7.8390391150124226E-5</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="M66" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B67" s="15">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C67" s="15">
+        <v>4.3954951147353507E-3</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I67" s="15">
+        <v>1.5405648074805758E-2</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M67" s="17">
+        <v>0.22401999671530937</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B68" s="16">
+        <v>6.8493150684931503E-3</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1.0789846605176146E-2</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I68" s="16">
+        <v>7.5138236924932903E-3</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M68" s="18">
+        <v>0.11421852540160815</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C69" s="15">
+        <v>4.3756059965691279E-3</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I69" s="15">
+        <v>4.0647792252521209E-3</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="M69" s="17">
+        <v>9.8207429969362936E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B70" s="16">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C70" s="16">
+        <v>2.603485567958631E-2</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I70" s="16">
+        <v>2.4436089172168145E-2</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="M70" s="18">
+        <v>0.10643838391302185</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C71" s="15">
+        <v>5.1711707232180593E-3</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" s="15">
+        <v>4.0735442756429001E-3</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="M71" s="17">
+        <v>8.8781792705193041E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B72" s="16">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C72" s="16">
+        <v>6.662854585684809E-3</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="16">
+        <v>4.1594520880406842E-3</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M72" s="18">
+        <v>8.317484755177218E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="C73" s="15">
+        <v>6.662854585684809E-3</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="15">
+        <v>4.1914023878137424E-3</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="M73" s="17">
+        <v>8.3920125831570491E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B74" s="16">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1.8099097531263209E-2</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I74" s="16">
+        <v>2.1718542337258902E-2</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="M74" s="18">
+        <v>0.18965932033405553</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
+        <v>2.1232876712328767E-2</v>
+      </c>
+      <c r="C75" s="15">
+        <v>4.5420116185598634E-3</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1.6670392473391051E-2</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M75" s="17">
+        <v>0.238545611948626</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B76" s="16">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1.1149508158682016E-2</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I76" s="16">
+        <v>8.272606411644472E-3</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="M76" s="18">
+        <v>7.7714314928552852E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C77" s="15">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I77" s="15">
+        <v>4.3968656823916716E-3</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="M77" s="17">
+        <v>6.750385296878858E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B78" s="16">
+        <v>2.1232876712328767E-2</v>
+      </c>
+      <c r="C78" s="16">
+        <v>2.6902684202239187E-2</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I78" s="16">
+        <v>2.629290154620172E-2</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="M78" s="18">
+        <v>8.5603790592709617E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C79" s="15">
+        <v>5.3435430806586613E-3</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I79" s="15">
+        <v>4.3825887968467177E-3</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="M79" s="17">
+        <v>7.3270473694665883E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B80" s="16">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C80" s="16">
+        <v>6.8849497385409693E-3</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I80" s="16">
+        <v>4.467192456880929E-3</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M80" s="18">
+        <v>7.3382032846391221E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C81" s="15">
+        <v>6.8849497385409693E-3</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I81" s="15">
+        <v>4.4859837159920953E-3</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="M81" s="17">
+        <v>7.2204719550229779E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B82" s="16">
+        <v>2.1232876712328767E-2</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1.8702400782305319E-2</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I82" s="16">
+        <v>2.313533083755422E-2</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="M82" s="18">
+        <v>0.173387686403907</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G83" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I83" s="15">
+        <v>3.9707320225947071E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G84" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I84" s="16">
+        <v>1.3543287301976875E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G85" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I85" s="15">
+        <v>6.8029382163175564E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G86" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I86" s="16">
+        <v>4.0840930517910011E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G87" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I87" s="15">
+        <v>6.8091268771139583E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G88" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I88" s="16">
+        <v>6.8199361796253506E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G89" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I89" s="15">
+        <v>6.8223878568565753E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G90" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I90" s="16">
+        <v>4.0494564167635499E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G91" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I91" s="15">
+        <v>6.2073488554570289E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G92" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I92" s="16">
+        <v>2.1101985672386567E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G93" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I93" s="15">
+        <v>1.0603406156264008E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G94" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94" s="16">
+        <v>6.3555203743589583E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G95" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95" s="15">
+        <v>1.0585357382300795E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G96" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I96" s="16">
+        <v>1.0591321673003137E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G97" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I97" s="15">
+        <v>1.0596062535943312E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G98" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I98" s="16">
+        <v>6.2996170224777284E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G99" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I99" s="15">
+        <v>8.2289097923920182E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G100" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I100" s="16">
+        <v>2.7887755730278085E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G101" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I101" s="15">
+        <v>1.4028075877044499E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G102" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I102" s="16">
+        <v>8.4214424933608492E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G103" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I103" s="15">
+        <v>1.4026381529242508E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G104" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I104" s="16">
+        <v>1.4025923788534856E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G105" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I105" s="15">
+        <v>1.4024817528250176E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G106" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I106" s="16">
+        <v>8.3494069960061396E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G107" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I107" s="15">
+        <v>2.0244723728878155E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G108" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I108" s="16">
+        <v>6.878212870246642E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G109" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I109" s="15">
+        <v>3.4542825968436014E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G110" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I110" s="16">
+        <v>2.0706577673956787E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G111" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I111" s="15">
+        <v>3.4485327113744088E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G112" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I112" s="16">
+        <v>3.4497151546279896E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G113" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I113" s="15">
+        <v>3.452056575494941E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G114" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I114" s="16">
+        <v>2.0539179261301912E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G115" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I115" s="15">
+        <v>1.1193968798204351E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G116" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I116" s="16">
+        <v>1.1173058662647624E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G117" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I117" s="15">
+        <v>1.1173058662647624E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G118" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I118" s="16">
+        <v>1.117357297804948E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G119" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I119" s="15">
+        <v>1.1176466002184924E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G120" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I120" s="16">
+        <v>1.1184180733212771E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G121" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I121" s="15">
+        <v>1.1249386282754389E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G122" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I122" s="16">
+        <v>1.1320120722865966E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G123" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I123" s="15">
+        <v>1.1356910346455014E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G124" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I124" s="16">
+        <v>1.1372195157303936E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G125" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I125" s="15">
+        <v>1.1365605491217651E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G126" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I126" s="16">
+        <v>1.1365123320528409E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G127" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I127" s="15">
+        <v>1.1363419650759761E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G128" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I128" s="16">
+        <v>1.1357697891914107E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G129" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I129" s="15">
+        <v>1.1353888743469106E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G130" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I130" s="16">
+        <v>1.1355479906743602E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G131" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I131" s="15">
+        <v>1.1362937480070518E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G132" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I132" s="16">
+        <v>1.1364383992138241E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G133" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I133" s="15">
+        <v>1.1364641149839169E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G134" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I134" s="16">
+        <v>1.1365396550585648E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G135" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I135" s="15">
+        <v>1.1355978149789148E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G136" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I136" s="16">
+        <v>1.1326356797113475E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G137" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I137" s="15">
+        <v>1.1329635557800313E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G138" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I138" s="16">
+        <v>1.1272659054688395E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G139" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I139" s="15">
+        <v>2.02168593004276E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G140" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I140" s="16">
+        <v>6.8723314776473581E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G141" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I141" s="15">
+        <v>3.4534291370958998E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G142" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I142" s="16">
+        <v>2.0723233511755871E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G143" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I143" s="15">
+        <v>3.453920629751799E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G144" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I144" s="16">
+        <v>3.4587378363844373E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G145" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I145" s="15">
+        <v>3.4605294219420919E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G146" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I146" s="16">
+        <v>2.0570849412193257E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G147" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I147" s="15">
+        <v>2.0886124944902419E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G148" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I148" s="16">
+        <v>7.1143282958096741E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G149" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I149" s="15">
+        <v>3.571774964491983E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G150" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I150" s="16">
+        <v>2.1425698858314777E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G151" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H151" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I151" s="15">
+        <v>3.5709744004242807E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G152" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I152" s="16">
+        <v>3.5757184778357179E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G153" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I153" s="15">
+        <v>3.5767721815152713E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G154" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I154" s="16">
+        <v>2.1248640798795224E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>